--- a/public/assets/format-import-kegiatan-juara.xlsx
+++ b/public/assets/format-import-kegiatan-juara.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bandrigotalai/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bandrigotalai/Dataku/Aplikasi Development/aplikasi-anggaran/public/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD04D70-0B16-E049-B44C-83E6689B6C17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC667C9-5812-7C41-A90D-D34C6F65F16A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4220" yWindow="500" windowWidth="28040" windowHeight="17440" xr2:uid="{81EE53FE-8760-7D43-9365-705E0CBC9C5F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="FORM ISI" sheetId="1" r:id="rId1"/>
     <sheet name="CARA ISI" sheetId="2" r:id="rId2"/>
+    <sheet name="SUMBER DANA" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>no</t>
   </si>
@@ -52,28 +53,22 @@
     <t>2132.BGC.002.051.AD</t>
   </si>
   <si>
-    <t>2132.BGC.002.052.AB</t>
-  </si>
-  <si>
-    <t>2132.BGC.002.052.AC</t>
-  </si>
-  <si>
-    <t>kegiatan 1</t>
-  </si>
-  <si>
-    <t>kegiatan 2</t>
-  </si>
-  <si>
-    <t>kegiatan 3</t>
-  </si>
-  <si>
-    <t>kegiatan 4</t>
-  </si>
-  <si>
-    <t>kegiatan 5</t>
-  </si>
-  <si>
     <t>RM</t>
+  </si>
+  <si>
+    <t>PNBP</t>
+  </si>
+  <si>
+    <t>Sosialisasi Penggunaaan Aplikasi SIAKAD</t>
+  </si>
+  <si>
+    <t>Wisuda IAIN Kendari tahun 2025</t>
+  </si>
+  <si>
+    <t>Pelatihan Design Grafis Bagi Mahasiswa</t>
+  </si>
+  <si>
+    <t>SUMBER DANA</t>
   </si>
 </sst>
 </file>
@@ -310,6 +305,88 @@
               </a:solidFill>
             </a:rPr>
             <a:t>Contoh pengisian ada di sheet CARA ISI</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2959100" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4384BCC1-F219-D842-BF51-13B4EDA07AB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6642100" y="1625600"/>
+          <a:ext cx="2959100" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Sumber Dana lihat di sheet</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> sumber dana</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="1">
             <a:solidFill>
@@ -624,7 +701,7 @@
   <dimension ref="A2:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -662,17 +739,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC8F7A33-E879-8B4D-9149-74C0055D9B89}">
-  <dimension ref="A2:E7"/>
+  <dimension ref="A2:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="3" max="3" width="51.83203125" customWidth="1"/>
     <col min="4" max="4" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.1640625" customWidth="1"/>
   </cols>
@@ -708,7 +785,7 @@
         <v>1000000</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -725,7 +802,7 @@
         <v>2000000</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -742,41 +819,38 @@
         <v>3000000</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B28934D-1CDE-3F49-8C80-93BF42FE4ADA}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="2">
-        <v>4000000</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="2">
-        <v>5000000</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
